--- a/Projects/SANOFINZ/Data/Template.xlsx
+++ b/Projects/SANOFINZ/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -40,7 +40,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Name of Products in MSL</t>
+          <t xml:space="preserve">Name of Products in MSL</t>
         </r>
       </text>
     </comment>
@@ -54,7 +54,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>EAN of products in MSL in accordance with SKU template</t>
+          <t xml:space="preserve">EAN of products in MSL in accordance with SKU template</t>
         </r>
       </text>
     </comment>
@@ -68,7 +68,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Brand of products in MSL in accordance with SKU template</t>
+          <t xml:space="preserve">Brand of products in MSL in accordance with SKU template</t>
         </r>
       </text>
     </comment>
@@ -82,7 +82,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Category of products in MSL in accordance with SKU template</t>
+          <t xml:space="preserve">Category of products in MSL in accordance with SKU template</t>
         </r>
       </text>
     </comment>
@@ -96,7 +96,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Store Type</t>
+          <t xml:space="preserve">Store Type</t>
         </r>
         <r>
           <rPr>
@@ -107,7 +107,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t> must be identical with Store Type attribute in Store Template. </t>
+          <t xml:space="preserve"> must be identical with Store Type attribute in Store Template. </t>
         </r>
         <r>
           <rPr>
@@ -117,7 +117,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Field is case sensitive</t>
+          <t xml:space="preserve">Field is case sensitive</t>
         </r>
       </text>
     </comment>
@@ -141,7 +141,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Brand and Category required for shelf location KPI</t>
+          <t xml:space="preserve">Brand and Category required for shelf location KPI</t>
         </r>
       </text>
     </comment>
@@ -155,7 +155,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Brand and Category required for shelf location KPI</t>
+          <t xml:space="preserve">Brand and Category required for shelf location KPI</t>
         </r>
       </text>
     </comment>
@@ -169,7 +169,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Store Type</t>
+          <t xml:space="preserve">Store Type</t>
         </r>
         <r>
           <rPr>
@@ -180,7 +180,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t> must be identical with Store Type attribute in Store Template. </t>
+          <t xml:space="preserve"> must be identical with Store Type attribute in Store Template. </t>
         </r>
         <r>
           <rPr>
@@ -190,7 +190,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Field is case sensitive</t>
+          <t xml:space="preserve">Field is case sensitive</t>
         </r>
       </text>
     </comment>
@@ -214,7 +214,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>To be identical to SKUs Brand in Trax DB</t>
+          <t xml:space="preserve">To be identical to SKUs Brand in Trax DB</t>
         </r>
       </text>
     </comment>
@@ -229,7 +229,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>To be </t>
+          <t xml:space="preserve">To be </t>
         </r>
         <r>
           <rPr>
@@ -239,7 +239,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>identical</t>
+          <t xml:space="preserve">identical</t>
         </r>
         <r>
           <rPr>
@@ -249,7 +249,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t> to SKUs Category in Trax DB</t>
+          <t xml:space="preserve"> to SKUs Category in Trax DB</t>
         </r>
       </text>
     </comment>
@@ -263,7 +263,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>For multi SKU/brand/category in a single blocked together rule, please use a "," comma to seperate them</t>
+          <t xml:space="preserve">For multi SKU/brand/category in a single blocked together rule, please use a "," comma to seperate them</t>
         </r>
       </text>
     </comment>
@@ -277,7 +277,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Store Type</t>
+          <t xml:space="preserve">Store Type</t>
         </r>
         <r>
           <rPr>
@@ -288,7 +288,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t> must be identical with Store Type attribute in Store Template. </t>
+          <t xml:space="preserve"> must be identical with Store Type attribute in Store Template. </t>
         </r>
         <r>
           <rPr>
@@ -298,7 +298,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Field is case sensitive</t>
+          <t xml:space="preserve">Field is case sensitive</t>
         </r>
       </text>
     </comment>
@@ -322,7 +322,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Name of POSM</t>
+          <t xml:space="preserve">Name of POSM</t>
         </r>
       </text>
     </comment>
@@ -336,7 +336,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>EAN of Required POSM in accordance with POSM template</t>
+          <t xml:space="preserve">EAN of Required POSM in accordance with POSM template</t>
         </r>
       </text>
     </comment>
@@ -350,7 +350,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Pavel Chernykh:
+          <t xml:space="preserve">Pavel Chernykh:
 </t>
         </r>
         <r>
@@ -361,7 +361,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Brand of Required POSM in accordance with POSM template</t>
+          <t xml:space="preserve">Brand of Required POSM in accordance with POSM template</t>
         </r>
       </text>
     </comment>
@@ -375,7 +375,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Pavel Chernykh:
+          <t xml:space="preserve">Pavel Chernykh:
 </t>
         </r>
         <r>
@@ -386,7 +386,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Category of Required POSM in accordance with POSM template</t>
+          <t xml:space="preserve">Category of Required POSM in accordance with POSM template</t>
         </r>
       </text>
     </comment>
@@ -400,7 +400,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Store Type</t>
+          <t xml:space="preserve">Store Type</t>
         </r>
         <r>
           <rPr>
@@ -411,7 +411,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t> must be identical with Store Type attribute in Store Template. </t>
+          <t xml:space="preserve"> must be identical with Store Type attribute in Store Template. </t>
         </r>
         <r>
           <rPr>
@@ -421,7 +421,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Field is case sensitive</t>
+          <t xml:space="preserve">Field is case sensitive</t>
         </r>
       </text>
     </comment>
@@ -445,7 +445,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Name of Products in Min facings</t>
+          <t xml:space="preserve">Name of Products in Min facings</t>
         </r>
       </text>
     </comment>
@@ -459,7 +459,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>EAN of products in Min facings in accordance with SKU template</t>
+          <t xml:space="preserve">EAN of products in Min facings in accordance with SKU template</t>
         </r>
       </text>
     </comment>
@@ -473,7 +473,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Brand of products in Min facings in accordance with SKU template</t>
+          <t xml:space="preserve">Brand of products in Min facings in accordance with SKU template</t>
         </r>
       </text>
     </comment>
@@ -487,7 +487,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Category of products in Min facings in accordance with SKU template</t>
+          <t xml:space="preserve">Category of products in Min facings in accordance with SKU template</t>
         </r>
       </text>
     </comment>
@@ -501,7 +501,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Store Type</t>
+          <t xml:space="preserve">Store Type</t>
         </r>
         <r>
           <rPr>
@@ -512,7 +512,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t> must be identical with Store Type attribute in Store Template. </t>
+          <t xml:space="preserve"> must be identical with Store Type attribute in Store Template. </t>
         </r>
         <r>
           <rPr>
@@ -522,7 +522,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Field is case sensitive</t>
+          <t xml:space="preserve">Field is case sensitive</t>
         </r>
       </text>
     </comment>
@@ -531,324 +531,360 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="106">
-  <si>
-    <t>KPI Name</t>
-  </si>
-  <si>
-    <t>KPI Group</t>
-  </si>
-  <si>
-    <t>KPI Type</t>
-  </si>
-  <si>
-    <t>Tested Group</t>
-  </si>
-  <si>
-    <t>Template Group</t>
-  </si>
-  <si>
-    <t>Sheet</t>
-  </si>
-  <si>
-    <t>SCORE</t>
-  </si>
-  <si>
-    <t>POSM Availability Primary</t>
-  </si>
-  <si>
-    <t>Primary Shelf</t>
-  </si>
-  <si>
-    <t>Product Availability Per SKU</t>
-  </si>
-  <si>
-    <t>Primary&amp;Secondary_POSM</t>
-  </si>
-  <si>
-    <t>numeric</t>
-  </si>
-  <si>
-    <t>Product Minimum Facings Primary</t>
-  </si>
-  <si>
-    <t>Primary&amp;Secondary_Facings</t>
-  </si>
-  <si>
-    <t>Blocked Together</t>
-  </si>
-  <si>
-    <t>Blocked Together Per Brand</t>
-  </si>
-  <si>
-    <t>Primary_Brand_Blocking</t>
-  </si>
-  <si>
-    <t>Shelf Location Compliance</t>
-  </si>
-  <si>
-    <t>Shelf Level Per Brand</t>
-  </si>
-  <si>
-    <t>Primary Shelf_Location</t>
-  </si>
-  <si>
-    <t>POSM Availability Secondary</t>
-  </si>
-  <si>
-    <t>Secondary Shelf</t>
-  </si>
-  <si>
-    <t>Product Minimum Facings Secondary</t>
-  </si>
-  <si>
-    <t>MSL Compliance</t>
-  </si>
-  <si>
-    <t>MSL</t>
-  </si>
-  <si>
-    <t>Perfect Store</t>
-  </si>
-  <si>
-    <t>Primary Shelf Compliance</t>
-  </si>
-  <si>
-    <t>Secondary Shelf Compliance</t>
-  </si>
-  <si>
-    <t>Perfect Store Compliance</t>
-  </si>
-  <si>
-    <t>Sum of KPIs in Group</t>
-  </si>
-  <si>
-    <t>Store Type</t>
-  </si>
-  <si>
-    <t>Product Name</t>
-  </si>
-  <si>
-    <t>Product EAN Code</t>
-  </si>
-  <si>
-    <t>Brand</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Traditional Pharmacy</t>
-  </si>
-  <si>
-    <t>NZ ONLY Anthisan Cream 25g</t>
-  </si>
-  <si>
-    <t>9319733001903</t>
-  </si>
-  <si>
-    <t>ANTHISAN</t>
-  </si>
-  <si>
-    <t>ANTISEPTIC</t>
-  </si>
-  <si>
-    <t>NZ ONLY Betadine Antiseptic Liquid 15mL</t>
-  </si>
-  <si>
-    <t>9300655003298</t>
-  </si>
-  <si>
-    <t>BETADINE</t>
-  </si>
-  <si>
-    <t>NZ ONLY Betadine Ready To Use Gargle 120mL</t>
-  </si>
-  <si>
-    <t>9300655122548</t>
-  </si>
-  <si>
-    <t>Cough &amp; Cold</t>
-  </si>
-  <si>
-    <t>NZ ONLY Betadine Sore Throat Gargle 15mL</t>
-  </si>
-  <si>
-    <t>9300655056812</t>
-  </si>
-  <si>
-    <t>NZ ONLY Betadine Antiseptic Ointment 25g</t>
-  </si>
-  <si>
-    <t>9300655059240</t>
-  </si>
-  <si>
-    <t>NZ ONLY Mersyndol Tabs 20</t>
-  </si>
-  <si>
-    <t>9321547072611</t>
-  </si>
-  <si>
-    <t>MERSYNDOL</t>
-  </si>
-  <si>
-    <t>PAIN</t>
-  </si>
-  <si>
-    <t>NO Complete Sleep Advanced 60 Tabs</t>
-  </si>
-  <si>
-    <t>9316090018759</t>
-  </si>
-  <si>
-    <t>NATURES OWN</t>
-  </si>
-  <si>
-    <t>SLEEP</t>
-  </si>
-  <si>
-    <t>NZ ONLY Telfast 180mg x 50 tablets NZ</t>
-  </si>
-  <si>
-    <t>9319733002290</t>
-  </si>
-  <si>
-    <t>TELFAST</t>
-  </si>
-  <si>
-    <t>ALLERGY</t>
-  </si>
-  <si>
-    <t>NZ ONLY Telfast 180mg x 10 tablets NZ</t>
-  </si>
-  <si>
-    <t>9321547136023</t>
-  </si>
-  <si>
-    <t>NZ ONLY Telfast 180mg x 30 tablets</t>
-  </si>
-  <si>
-    <t>9321547146213</t>
-  </si>
-  <si>
-    <t>Bisolvon Chesty Forte Liquid 8mg/5mL 200mL</t>
-  </si>
-  <si>
-    <t>9310717300029</t>
-  </si>
-  <si>
-    <t>BISOLVON</t>
-  </si>
-  <si>
-    <t>Bisolvon Chesty Forte 8mg Tablets 50</t>
-  </si>
-  <si>
-    <t>9310717300005</t>
-  </si>
-  <si>
-    <t>Dulcolax 5mg Tablets 30</t>
-  </si>
-  <si>
-    <t>9416270112113</t>
-  </si>
-  <si>
-    <t>DULCOLAX</t>
-  </si>
-  <si>
-    <t>DIGESTIVE HEALTH</t>
-  </si>
-  <si>
-    <t>Dulcolax 5mg Tablets 100</t>
-  </si>
-  <si>
-    <t>9416270112120</t>
-  </si>
-  <si>
-    <t>OSTELIN VITAMIN D X 130 CAPS</t>
-  </si>
-  <si>
-    <t>9316090500209</t>
-  </si>
-  <si>
-    <t>OSTELIN</t>
-  </si>
-  <si>
-    <t>MOBILITY</t>
-  </si>
-  <si>
-    <t>OSTELIN VIT D &amp; CALCIUM X 130 TABS</t>
-  </si>
-  <si>
-    <t>9316090500506</t>
-  </si>
-  <si>
-    <t>OSTELIN VITAMIN D 1000IU KIDS LIQUID 20ml </t>
-  </si>
-  <si>
-    <t>9316090502104</t>
-  </si>
-  <si>
-    <t>OSTELIN VIT D &amp; CALCIUM KIDS CHEWABLE X 50</t>
-  </si>
-  <si>
-    <t>9316090503606</t>
-  </si>
-  <si>
-    <t>Betadine Sore Throat Lozenges Honey &amp; Lemon 16</t>
-  </si>
-  <si>
-    <t>9319733003273</t>
-  </si>
-  <si>
-    <t>NO Triple Strength Garlic, C, Horseradish 150</t>
-  </si>
-  <si>
-    <t>9316090016779</t>
-  </si>
-  <si>
-    <t>IMMUNITY</t>
-  </si>
-  <si>
-    <t>SKUs</t>
-  </si>
-  <si>
-    <t>NZ ONLY Betadine Ready To Use Gargle 120mL,NZ ONLY Betadine Sore Throat Gargle 15mL,Betadine Sore Throat Lozenges Honey &amp; Lemon 16</t>
-  </si>
-  <si>
-    <t>9300655122548,9300655056812,9319733003273</t>
-  </si>
-  <si>
-    <t>NZ ONLY Telfast 180mg x 50 tablets NZ,NZ ONLY Telfast 180mg x 30 tablets</t>
-  </si>
-  <si>
-    <t>9319733002290,9321547146213</t>
-  </si>
-  <si>
-    <t>Bisolvon Chesty Forte Liquid 8mg/5mL 200mL,Bisolvon Chesty Forte 8mg Tablets 50</t>
-  </si>
-  <si>
-    <t>9310717300029,9310717300005</t>
-  </si>
-  <si>
-    <t>Dulcolax 5mg Tablets 30,Dulcolax 5mg Tablets 100</t>
-  </si>
-  <si>
-    <t>9416270112113,9416270112120</t>
-  </si>
-  <si>
-    <t>OSTELIN VITAMIN D X 130 CAPS,OSTELIN VIT D &amp; CALCIUM X 130 TABS,OSTELIN VITAMIN D 1000IU KIDS LIQUID 20ml ,OSTELIN VIT D &amp; CALCIUM KIDS CHEWABLE X 50</t>
-  </si>
-  <si>
-    <t>9316090500209,9316090500506,9316090502104,9316090503606</t>
-  </si>
-  <si>
-    <t>SKIN</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="118">
+  <si>
+    <t xml:space="preserve">KPI Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tested Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Template Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCORE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POSM Availability Primary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Availability Per SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary&amp;Secondary_POSM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">numeric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Minimum Facings Primary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary&amp;Secondary_Facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blocked Together</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blocked Together Per Brand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary_Brand_Blocking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shelf Location Compliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shelf Level Per Brand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary Shelf_Location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POSM Availability Secondary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secondary Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Minimum Facings Secondary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSL Compliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perfect Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary Shelf Compliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secondary Shelf Compliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perfect Store Compliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sum of KPIs in Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Store Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product EAN Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traditional Pharmacy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NZ ONLY Betadine Antiseptic Liquid 15mL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BETADINE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTISEPTIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO Complete Sleep Advanced 30 Tabs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NATURES OWN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLEEP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO Glucosamine with Chondroitin Tablets 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOINTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO Bio-Curcumin  Capsules 60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO Glucosamine Sulfate Tablets 120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO Complete Sleep Advanced 10 Tabs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NZ ONLY Betadine Sore Throat Gargle 15mL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9300655056812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cough &amp; Cold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NZ ONLY Betadine Antiseptic Ointment 25g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9300655059240</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NZ ONLY Betadine Ready To Use Gargle 120mL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9300655122548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bisolvon Chesty Forte 8mg Tablets 50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9310717300005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BISOLVON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bisolvon Chesty Forte Liquid 8mg/5mL 200mL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9310717300029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO Complete Sleep Advanced 60 Tabs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9316090018759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OSTELIN VITAMIN D X 130 CAPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9316090500209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OSTELIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOBILITY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OSTELIN VIT D &amp; CALCIUM X 130 TABS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9316090500506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OSTELIN VITAMIN D 1000IU KIDS LIQUID 20ml </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9316090502104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OSTELIN VIT D &amp; CALCIUM KIDS CHEWABLE X 50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9316090503606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NZ ONLY Anthisan Cream 25g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9319733001903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTHISAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NZ ONLY Telfast 180mg x 50 tablets NZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9319733002290</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TELFAST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALLERGY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Betadine Sore Throat Lozenges Honey &amp; Lemon 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9319733003273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NZ ONLY Mersyndol Tabs 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9321547072611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MERSYNDOL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NZ ONLY Telfast 180mg x 10 tablets NZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9321547136023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NZ ONLY Telfast 180mg x 30 tablets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9321547146213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dulcolax 5mg Tablets 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DULCOLAX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIGESTIVE HEALTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dulcolax 5mg Tablets 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKUs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMMUNITY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO Triple Strength Garlic, C, Horseradish 150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NZ ONLY Betadine Ready To Use Gargle 120mL,NZ ONLY Betadine Sore Throat Gargle 15mL,Betadine Sore Throat Lozenges Honey &amp; Lemon 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9300655122548,9300655056812,9319733003273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NZ ONLY Telfast 180mg x 50 tablets NZ,NZ ONLY Telfast 180mg x 30 tablets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9319733002290,9321547146213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bisolvon Chesty Forte Liquid 8mg/5mL 200mL,Bisolvon Chesty Forte 8mg Tablets 50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9310717300029,9310717300005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dulcolax 5mg Tablets 30,Dulcolax 5mg Tablets 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9416270112113,9416270112120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OSTELIN VITAMIN D X 130 CAPS,OSTELIN VIT D &amp; CALCIUM X 130 TABS,OSTELIN VITAMIN D 1000IU KIDS LIQUID 20ml ,OSTELIN VIT D &amp; CALCIUM KIDS CHEWABLE X 50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9316090500209,9316090500506,9316090502104,9316090503606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9300655003298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9416270112113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9416270112120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9316090016779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telfast Shelf Strip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHCANZCFEX18060634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telfast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allergy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telfast Price Tags</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHCANZCFEX18090913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telfast FSDU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHCANZCFEX18030244</t>
   </si>
 </sst>
 </file>
@@ -856,12 +892,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="0.00"/>
     <numFmt numFmtId="167" formatCode="0"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -885,18 +921,18 @@
       <family val="0"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <b val="true"/>
@@ -956,14 +992,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <u val="single"/>
       <sz val="9"/>
       <color rgb="FF000000"/>
@@ -1012,13 +1040,28 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1040,7 +1083,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB4C7E7"/>
-        <bgColor rgb="FF99CCFF"/>
+        <bgColor rgb="FFC5E0B4"/>
       </patternFill>
     </fill>
     <fill>
@@ -1064,13 +1107,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFE699"/>
-        <bgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC5E0B4"/>
-        <bgColor rgb="FFDAE3F3"/>
+        <bgColor rgb="FFA9D18E"/>
       </patternFill>
     </fill>
     <fill>
@@ -1079,8 +1122,14 @@
         <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9D18E"/>
+        <bgColor rgb="FFC5E0B4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="18">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1117,30 +1166,9 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
       <left style="medium"/>
       <right style="thin"/>
       <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="medium"/>
-      <top style="medium"/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
@@ -1162,6 +1190,20 @@
       <left/>
       <right style="thin"/>
       <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="medium"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="medium"/>
+      <top style="medium"/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
@@ -1209,13 +1251,13 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1239,25 +1281,21 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="75">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1309,7 +1347,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="6" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1317,11 +1355,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="8" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="8" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="4" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1329,11 +1367,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1341,79 +1379,71 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="9" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="9" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="9" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="9" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="9" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="9" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="9" borderId="9" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="16" fillId="6" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="7" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="21" fillId="9" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1425,7 +1455,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="6" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1437,35 +1467,35 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="9" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="9" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="9" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="9" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1473,49 +1503,115 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="7" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="8" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="22" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="8" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="9" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="9" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="9" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="9" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="9" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="9" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="9" borderId="6" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="18" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="9" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal 2" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1526,7 +1622,7 @@
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF9C0006"/>
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
@@ -1554,10 +1650,10 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFC5E0B4"/>
       <rgbColor rgb="FFFFE699"/>
-      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFA9D18E"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFFC7CE"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -1586,19 +1682,19 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.0647773279352"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.3198380566802"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.4251012145749"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.8502024291498"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1854,24 +1950,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="42.5263157894737"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="43.3846153846154"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="17.995951417004"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="14" width="8.89068825910931"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="15"/>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -1881,7 +1977,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
@@ -1901,410 +1997,492 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="19" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="21" t="n">
+        <v>9300655003298</v>
+      </c>
+      <c r="D3" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="E3" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="24" t="n">
+      <c r="F3" s="23" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="19" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="21" t="n">
+        <v>9316090016175</v>
+      </c>
+      <c r="D4" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="E4" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="25" t="n">
+      <c r="F4" s="23" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="19" t="s">
         <v>23</v>
       </c>
       <c r="B5" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="21" t="n">
+        <v>9316090019206</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="25" t="n">
+      <c r="F5" s="23" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="19" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="C6" s="21" t="n">
+        <v>9316090019220</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="25" t="n">
+        <v>40</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="23" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="19" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>49</v>
+        <v>45</v>
+      </c>
+      <c r="C7" s="21" t="n">
+        <v>9316090019237</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="25" t="n">
+        <v>40</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="23" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="19" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>51</v>
+        <v>46</v>
+      </c>
+      <c r="C8" s="21" t="n">
+        <v>9316090019350</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="25" t="n">
+        <v>40</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="23" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="19" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" s="25" t="n">
+        <v>37</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="23" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="19" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" s="25" t="n">
+        <v>37</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="23" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="19" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="25" t="n">
+        <v>37</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="23" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="19" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="F12" s="25" t="n">
+        <v>56</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="23" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="19" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="25" t="n">
+        <v>56</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="23" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="19" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="25" t="n">
+        <v>40</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="23" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="19" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" s="25" t="n">
+        <v>63</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="23" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="19" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="25" t="n">
+        <v>63</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="23" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="19" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="F17" s="25" t="n">
+        <v>63</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="23" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="19" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="F18" s="25" t="n">
+        <v>63</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="23" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="19" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="F19" s="25" t="n">
+        <v>73</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="23" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="19" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="F20" s="25" t="n">
+        <v>76</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" s="23" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="19" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="25" t="n">
+        <v>37</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="23" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="19" t="s">
         <v>23</v>
       </c>
       <c r="B22" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22" s="23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" s="23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" s="23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="21" t="n">
+        <v>9416270112113</v>
+      </c>
+      <c r="D25" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="E25" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="D22" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="23" t="s">
+      <c r="F25" s="23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="F22" s="25" t="n">
+      <c r="C26" s="21" t="n">
+        <v>9416270112120</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="F26" s="24" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E3" r:id="rId2" display="ANTISEPTIC"/>
-  </hyperlinks>
+  <conditionalFormatting sqref="B3:B26">
+    <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2312,7 +2490,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2324,26 +2502,26 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="E30" activeCellId="0" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="26" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="26" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="26" width="30.7449392712551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="26" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="26" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="27" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="13" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="31.3846153846154"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="14" width="8.89068825910931"/>
   </cols>
   <sheetData>
-    <row r="1" s="30" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="28"/>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="29" t="s">
+    <row r="1" s="27" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2366,406 +2544,406 @@
       <c r="F2" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="31"/>
+      <c r="G2" s="28"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="33" t="n">
+        <v>9319733001903</v>
+      </c>
+      <c r="F3" s="34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="36" t="n">
-        <v>9319733001903</v>
-      </c>
-      <c r="F3" s="24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="32" t="s">
+      <c r="E4" s="33" t="n">
+        <v>9300655003298</v>
+      </c>
+      <c r="F4" s="34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="37" t="s">
+      <c r="B5" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="33" t="n">
+        <v>9300655122548</v>
+      </c>
+      <c r="F5" s="34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="33" t="n">
+        <v>9300655056812</v>
+      </c>
+      <c r="F6" s="34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="33" t="n">
+        <v>9300655059240</v>
+      </c>
+      <c r="F7" s="34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="33" t="n">
+        <v>9321547072611</v>
+      </c>
+      <c r="F8" s="34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="36" t="n">
-        <v>9300655003298</v>
-      </c>
-      <c r="F4" s="24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="32" t="s">
+      <c r="C9" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="33" t="n">
+        <v>9316090018759</v>
+      </c>
+      <c r="F9" s="34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="36" t="n">
-        <v>9300655122548</v>
-      </c>
-      <c r="F5" s="24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="32" t="s">
+      <c r="B10" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="33" t="n">
+        <v>9319733002290</v>
+      </c>
+      <c r="F10" s="34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="36" t="n">
-        <v>9300655056812</v>
-      </c>
-      <c r="F6" s="24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="32" t="s">
+      <c r="B11" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="33" t="n">
+        <v>9321547136023</v>
+      </c>
+      <c r="F11" s="34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="36" t="n">
-        <v>9300655059240</v>
-      </c>
-      <c r="F7" s="24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="32" t="s">
+      <c r="B12" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="33" t="n">
+        <v>9321547146213</v>
+      </c>
+      <c r="F12" s="34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="36" t="n">
-        <v>9321547072611</v>
-      </c>
-      <c r="F8" s="24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="32" t="s">
+      <c r="B13" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="33" t="n">
+        <v>9310717300029</v>
+      </c>
+      <c r="F13" s="34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B14" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="40" t="s">
+      <c r="C14" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="36" t="n">
-        <v>9316090018759</v>
-      </c>
-      <c r="F9" s="24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="32" t="s">
+      <c r="E14" s="33" t="n">
+        <v>9310717300005</v>
+      </c>
+      <c r="F14" s="34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="34" t="s">
+      <c r="B15" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="33" t="n">
+        <v>9416270112113</v>
+      </c>
+      <c r="F15" s="34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="33" t="n">
+        <v>9416270112120</v>
+      </c>
+      <c r="F16" s="34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="36" t="n">
-        <v>9319733002290</v>
-      </c>
-      <c r="F10" s="24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="32" t="s">
+      <c r="E17" s="33" t="n">
+        <v>9316090500209</v>
+      </c>
+      <c r="F17" s="34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="36" t="n">
-        <v>9321547136023</v>
-      </c>
-      <c r="F11" s="24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="32" t="s">
+      <c r="B18" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="33" t="n">
+        <v>9316090500506</v>
+      </c>
+      <c r="F18" s="34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="37" t="s">
+      <c r="B19" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="36" t="n">
-        <v>9321547146213</v>
-      </c>
-      <c r="F12" s="24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="32" t="s">
+      <c r="D19" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="33" t="n">
+        <v>9316090502104</v>
+      </c>
+      <c r="F19" s="34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" s="36" t="n">
-        <v>9310717300029</v>
-      </c>
-      <c r="F13" s="24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="32" t="s">
+      <c r="B20" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="33" t="n">
+        <v>9316090503606</v>
+      </c>
+      <c r="F20" s="34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="36" t="n">
-        <v>9310717300005</v>
-      </c>
-      <c r="F14" s="24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="32" t="s">
+      <c r="B21" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="33" t="n">
+        <v>9319733003273</v>
+      </c>
+      <c r="F21" s="34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" s="36" t="n">
-        <v>9416270112113</v>
-      </c>
-      <c r="F15" s="24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" s="36" t="n">
-        <v>9416270112120</v>
-      </c>
-      <c r="F16" s="24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="E17" s="36" t="n">
-        <v>9316090500209</v>
-      </c>
-      <c r="F17" s="24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="D18" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="E18" s="36" t="n">
-        <v>9316090500506</v>
-      </c>
-      <c r="F18" s="24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="D19" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="E19" s="36" t="n">
-        <v>9316090502104</v>
-      </c>
-      <c r="F19" s="24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="D20" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="E20" s="36" t="n">
-        <v>9316090503606</v>
-      </c>
-      <c r="F20" s="24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="E21" s="36" t="n">
-        <v>9319733003273</v>
-      </c>
-      <c r="F21" s="24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D22" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="E22" s="36" t="n">
+      <c r="B22" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" s="33" t="n">
         <v>9316090016779</v>
       </c>
-      <c r="F22" s="24" t="n">
-        <v>1</v>
+      <c r="F22" s="34" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2788,25 +2966,25 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="42" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="42" width="50.1336032388664"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="42" width="38.2429149797571"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="42" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="43" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="40" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="40" width="50.9878542510121"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="40" width="38.8825910931174"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="40" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="41" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="44"/>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="45" t="s">
+      <c r="A1" s="42"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="43" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2830,104 +3008,104 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="46" t="s">
+    <row r="3" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="49" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="F3" s="50" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="46" t="s">
+      <c r="B3" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="E4" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="F4" s="52" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="46" t="s">
+      <c r="B4" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="E5" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="F5" s="52" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="46" t="s">
+      <c r="B5" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" s="50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="54" t="s">
-        <v>99</v>
-      </c>
-      <c r="E6" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="F6" s="52" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="46" t="s">
+      <c r="B6" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" s="50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="47" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" s="54" t="s">
-        <v>101</v>
-      </c>
-      <c r="E7" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="F7" s="52" t="n">
-        <v>1</v>
+      <c r="B7" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="F7" s="50" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2950,17 +3128,17 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+      <selection pane="topLeft" activeCell="C35" activeCellId="0" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="55" width="32.1376518218623"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="55" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="55" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="53" width="32.5627530364372"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="53" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="53" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="14" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -2970,444 +3148,495 @@
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="54" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="57" t="s">
+      <c r="A2" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="57" t="s">
+      <c r="E2" s="55" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="58" t="s">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="59" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" s="60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C4" s="58" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="E4" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="59" t="s">
-        <v>103</v>
-      </c>
-      <c r="F3" s="61" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="58" t="s">
+      <c r="F4" s="60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B5" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="E9" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="59" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="61" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="58" t="s">
+      <c r="F9" s="60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="59" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="61" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="58" t="s">
+      <c r="B10" s="57" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="59" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="59" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="61" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="58" t="s">
+      <c r="B11" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="60" t="s">
+      <c r="B12" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="59" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="61" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="58" t="s">
+      <c r="F13" s="60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="59" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="61" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="58" t="s">
+      <c r="B14" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="59" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="60" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="59" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="59" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" s="61" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="58" t="s">
+      <c r="B15" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="59" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" s="60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="59" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="60" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="59" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="59" t="s">
+      <c r="B16" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="59" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" s="60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="61" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="58" t="s">
+      <c r="C17" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="59" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="60" t="s">
+      <c r="B18" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="59" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="61" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="58" t="s">
+      <c r="E18" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="59" t="s">
+      <c r="B19" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="60" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="59" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="F12" s="61" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="58" t="s">
+      <c r="F19" s="60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="59" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="60" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="61" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="58" t="s">
+      <c r="B20" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="59" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="61" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="58" t="s">
+      <c r="B21" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="59" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="60" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="59" t="s">
-        <v>73</v>
-      </c>
-      <c r="E15" s="59" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" s="61" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="58" t="s">
+      <c r="B22" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22" s="60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="59" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" s="60" t="s">
-        <v>76</v>
-      </c>
-      <c r="D16" s="59" t="s">
-        <v>73</v>
-      </c>
-      <c r="E16" s="59" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="61" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="58" t="s">
+      <c r="B23" s="61" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" s="61" t="s">
+        <v>112</v>
+      </c>
+      <c r="E23" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="F23" s="64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="59" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="D17" s="59" t="s">
-        <v>79</v>
-      </c>
-      <c r="E17" s="59" t="s">
-        <v>80</v>
-      </c>
-      <c r="F17" s="61" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="59" t="s">
-        <v>81</v>
-      </c>
-      <c r="C18" s="60" t="s">
-        <v>82</v>
-      </c>
-      <c r="D18" s="59" t="s">
-        <v>79</v>
-      </c>
-      <c r="E18" s="59" t="s">
-        <v>80</v>
-      </c>
-      <c r="F18" s="61" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="59" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" s="60" t="s">
-        <v>84</v>
-      </c>
-      <c r="D19" s="59" t="s">
-        <v>79</v>
-      </c>
-      <c r="E19" s="59" t="s">
-        <v>80</v>
-      </c>
-      <c r="F19" s="61" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="59" t="s">
-        <v>85</v>
-      </c>
-      <c r="C20" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="D20" s="59" t="s">
-        <v>79</v>
-      </c>
-      <c r="E20" s="59" t="s">
-        <v>80</v>
-      </c>
-      <c r="F20" s="61" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="59" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="D21" s="59" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="61" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="59" t="s">
-        <v>89</v>
-      </c>
-      <c r="C22" s="60" t="s">
-        <v>90</v>
-      </c>
-      <c r="D22" s="59" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="59" t="s">
-        <v>91</v>
-      </c>
-      <c r="F22" s="61" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F23" s="62"/>
-    </row>
-    <row r="24" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F24" s="62"/>
-    </row>
-    <row r="25" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F25" s="62"/>
+      <c r="B24" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" s="62" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24" s="61" t="s">
+        <v>112</v>
+      </c>
+      <c r="E24" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="F24" s="60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25" s="62" t="s">
+        <v>117</v>
+      </c>
+      <c r="D25" s="61" t="s">
+        <v>112</v>
+      </c>
+      <c r="E25" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="F25" s="60" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F26" s="62"/>
+      <c r="F26" s="65"/>
     </row>
     <row r="27" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F27" s="62"/>
+      <c r="F27" s="65"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3426,70 +3655,574 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G65536"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="31.0647773279352"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="42.5263157894737"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="17.3522267206478"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="14" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="31.5991902834008"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="43.3846153846154"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="1023" min="7" style="14" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.89068825910931"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="28"/>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="45" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="57" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="57" t="s">
+      <c r="E2" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="G2" s="63" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="F2" s="66" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="69" t="n">
+        <v>9319733001903</v>
+      </c>
+      <c r="D3" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="69" t="n">
+        <v>9300655003298</v>
+      </c>
+      <c r="D4" s="68" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="69" t="n">
+        <v>9300655122548</v>
+      </c>
+      <c r="D5" s="68" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="68" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="69" t="n">
+        <v>9300655056812</v>
+      </c>
+      <c r="D6" s="68" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="69" t="n">
+        <v>9300655059240</v>
+      </c>
+      <c r="D7" s="68" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="68" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="69" t="n">
+        <v>9321547072611</v>
+      </c>
+      <c r="D8" s="68" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="69" t="n">
+        <v>9316090018759</v>
+      </c>
+      <c r="D9" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="69" t="n">
+        <v>9316090016175</v>
+      </c>
+      <c r="D10" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="69" t="n">
+        <v>9316090019350</v>
+      </c>
+      <c r="D11" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="69" t="n">
+        <v>9316090019220</v>
+      </c>
+      <c r="D12" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="69" t="n">
+        <v>9316090019206</v>
+      </c>
+      <c r="D13" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="69" t="n">
+        <v>9316090019237</v>
+      </c>
+      <c r="D14" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="68" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="69" t="n">
+        <v>9319733002290</v>
+      </c>
+      <c r="D15" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="68" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="69" t="n">
+        <v>9321547136023</v>
+      </c>
+      <c r="D16" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="68" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="69" t="n">
+        <v>9321547146213</v>
+      </c>
+      <c r="D17" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="68" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="69" t="n">
+        <v>9310717300029</v>
+      </c>
+      <c r="D18" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="68" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="69" t="n">
+        <v>9310717300005</v>
+      </c>
+      <c r="D19" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="69" t="n">
+        <v>9416270112113</v>
+      </c>
+      <c r="D20" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" s="23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="69" t="n">
+        <v>9416270112120</v>
+      </c>
+      <c r="D21" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" s="23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="69" t="n">
+        <v>9316090500209</v>
+      </c>
+      <c r="D22" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" s="23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="71" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="69" t="n">
+        <v>9316090500506</v>
+      </c>
+      <c r="D23" s="72" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" s="23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="69" t="n">
+        <v>9316090502104</v>
+      </c>
+      <c r="D24" s="72" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="69" t="n">
+        <v>9316090503606</v>
+      </c>
+      <c r="D25" s="72" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25" s="23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="69" t="n">
+        <v>9319733003273</v>
+      </c>
+      <c r="D26" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="F26" s="23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="74" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="69" t="n">
+        <v>9319733002290</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="F27" s="24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="74" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="69" t="n">
+        <v>9321547146213</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="F28" s="24" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Projects/SANOFINZ/Data/Template.xlsx
+++ b/Projects/SANOFINZ/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -1134,7 +1134,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="14">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1221,23 +1221,9 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
-      <right style="thin"/>
-      <top style="medium"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
+      <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -1245,13 +1231,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1284,7 +1263,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="79">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1385,10 +1364,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1489,38 +1464,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="9" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="9" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="2" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1537,7 +1480,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="7" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="27" fillId="7" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1585,7 +1528,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="15" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="13" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1738,13 +1681,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.5303643724696"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.2793522267206"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2008,12 +1951,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="43.7044534412956"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="44.0242914979757"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="18.3157894736842"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="13" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.2105263157895"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="14" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -2604,19 +2547,19 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C27" s="26" t="n">
+      <c r="C27" s="25" t="n">
         <v>9319733002290</v>
       </c>
-      <c r="D27" s="25" t="s">
+      <c r="D27" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="E27" s="25" t="s">
+      <c r="E27" s="13" t="s">
         <v>74</v>
       </c>
       <c r="F27" s="24" t="n">
@@ -2627,19 +2570,19 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C28" s="26" t="n">
+      <c r="C28" s="25" t="n">
         <v>9417133903442</v>
       </c>
-      <c r="D28" s="25" t="s">
+      <c r="D28" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="E28" s="25" t="s">
+      <c r="E28" s="13" t="s">
         <v>74</v>
       </c>
       <c r="F28" s="24" t="n">
@@ -2650,19 +2593,19 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="26" t="n">
+      <c r="C29" s="25" t="n">
         <v>9417133903305</v>
       </c>
-      <c r="D29" s="25" t="s">
+      <c r="D29" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="E29" s="25" t="s">
+      <c r="E29" s="13" t="s">
         <v>74</v>
       </c>
       <c r="F29" s="24" t="n">
@@ -2673,19 +2616,19 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C30" s="26" t="n">
+      <c r="C30" s="25" t="n">
         <v>9319733003044</v>
       </c>
-      <c r="D30" s="25" t="s">
+      <c r="D30" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="E30" s="25" t="s">
+      <c r="E30" s="13" t="s">
         <v>74</v>
       </c>
       <c r="F30" s="24" t="n">
@@ -2696,19 +2639,19 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="26" t="n">
+      <c r="C31" s="25" t="n">
         <v>9417133902711</v>
       </c>
-      <c r="D31" s="25" t="s">
+      <c r="D31" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="E31" s="25" t="s">
+      <c r="E31" s="13" t="s">
         <v>74</v>
       </c>
       <c r="F31" s="24" t="n">
@@ -2719,19 +2662,19 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="26" t="n">
+      <c r="C32" s="25" t="n">
         <v>9319733001958</v>
       </c>
-      <c r="D32" s="25" t="s">
+      <c r="D32" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="E32" s="25" t="s">
+      <c r="E32" s="13" t="s">
         <v>74</v>
       </c>
       <c r="F32" s="24" t="n">
@@ -2742,19 +2685,19 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C33" s="26" t="n">
+      <c r="C33" s="25" t="n">
         <v>9316090503606</v>
       </c>
-      <c r="D33" s="25" t="s">
+      <c r="D33" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="E33" s="25" t="s">
+      <c r="E33" s="13" t="s">
         <v>52</v>
       </c>
       <c r="F33" s="24" t="n">
@@ -2765,19 +2708,19 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C34" s="26" t="n">
+      <c r="C34" s="25" t="n">
         <v>9316090500506</v>
       </c>
-      <c r="D34" s="25" t="s">
+      <c r="D34" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="E34" s="25" t="s">
+      <c r="E34" s="13" t="s">
         <v>52</v>
       </c>
       <c r="F34" s="24" t="n">
@@ -2788,19 +2731,19 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="25" t="s">
+      <c r="B35" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C35" s="26" t="n">
+      <c r="C35" s="25" t="n">
         <v>9316090502104</v>
       </c>
-      <c r="D35" s="25" t="s">
+      <c r="D35" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="E35" s="25" t="s">
+      <c r="E35" s="13" t="s">
         <v>52</v>
       </c>
       <c r="F35" s="24" t="n">
@@ -2811,19 +2754,19 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="25" t="s">
+      <c r="B36" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C36" s="26" t="n">
+      <c r="C36" s="25" t="n">
         <v>9316090500209</v>
       </c>
-      <c r="D36" s="25" t="s">
+      <c r="D36" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="E36" s="25" t="s">
+      <c r="E36" s="13" t="s">
         <v>52</v>
       </c>
       <c r="F36" s="24" t="n">
@@ -2834,19 +2777,19 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="C37" s="26" t="n">
+      <c r="C37" s="25" t="n">
         <v>9321547004223</v>
       </c>
-      <c r="D37" s="25" t="s">
+      <c r="D37" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="E37" s="25" t="s">
+      <c r="E37" s="13" t="s">
         <v>71</v>
       </c>
       <c r="F37" s="24" t="n">
@@ -2857,19 +2800,19 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B38" s="25" t="s">
+      <c r="B38" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C38" s="26" t="n">
+      <c r="C38" s="25" t="n">
         <v>9321547004315</v>
       </c>
-      <c r="D38" s="25" t="s">
+      <c r="D38" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="E38" s="25" t="s">
+      <c r="E38" s="13" t="s">
         <v>71</v>
       </c>
       <c r="F38" s="24" t="n">
@@ -2912,202 +2855,202 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="27" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="27" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="27" width="31.5991902834008"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="27" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="27" width="17.4615384615385"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="28" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="26" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="26" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="26" width="31.8137651821862"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="26" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="26" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="27" width="8.89068825910931"/>
   </cols>
   <sheetData>
-    <row r="1" s="31" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="29"/>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="30" t="s">
+    <row r="1" s="30" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="28"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="29" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="34"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="33"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="35"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="40"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="39"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="35"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="40"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="39"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="35"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="39"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="35"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="40"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="39"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="35"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="40"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="39"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="35"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="40"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="39"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="35"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="40"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="39"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="35"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="40"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="39"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="35"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="40"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="39"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="35"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="40"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="39"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="35"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="40"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="39"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="35"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="40"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="39"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="35"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="40"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="39"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="35"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="40"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="39"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="35"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="40"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="39"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="35"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="40"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="39"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="35"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="40"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="39"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="35"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="40"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="39"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="35"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="40"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="39"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="35"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="40"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="39"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3128,96 +3071,71 @@
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="46" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="46" width="51.417004048583"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="46" width="39.2064777327935"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="46" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="47" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="45" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="45" width="51.8461538461539"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="45" width="39.5263157894737"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="45" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="46" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="48"/>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="49" t="s">
+      <c r="A1" s="47"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="48" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="33"/>
+      <c r="F2" s="32"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="54"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="56"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="56"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="56"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="51"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="56"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3244,343 +3162,343 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="59" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="60" width="32.7773279352227"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="60" width="26.7813765182186"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="60" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="59" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="61" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="50" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="51" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="50" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="51" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="51" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="50" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="52" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="62"/>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="63" t="s">
+      <c r="A1" s="53"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="63"/>
+      <c r="G1" s="54"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="64" t="s">
+      <c r="E2" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="65" t="s">
+      <c r="F2" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="65" t="s">
+      <c r="G2" s="56" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="67" t="s">
+      <c r="D3" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="69" t="s">
+      <c r="E3" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="F3" s="70" t="n">
+      <c r="F3" s="61" t="n">
         <v>0</v>
       </c>
-      <c r="G3" s="59" t="n">
+      <c r="G3" s="50" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="D4" s="67" t="s">
+      <c r="D4" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="E4" s="69" t="s">
+      <c r="E4" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="F4" s="70" t="n">
+      <c r="F4" s="61" t="n">
         <v>0</v>
       </c>
-      <c r="G4" s="59" t="n">
+      <c r="G4" s="50" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="67" t="s">
+      <c r="D5" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="E5" s="69" t="s">
+      <c r="E5" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="70" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="59" t="n">
+      <c r="F5" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="50" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="D6" s="67" t="s">
+      <c r="D6" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="E6" s="69" t="s">
+      <c r="E6" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="70" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="59" t="n">
+      <c r="F6" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="50" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="58" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="D7" s="67" t="s">
+      <c r="D7" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="69" t="s">
+      <c r="E7" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="70" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="59" t="n">
+      <c r="F7" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="50" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="66" t="s">
+      <c r="A8" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="C8" s="68" t="s">
+      <c r="C8" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="D8" s="67" t="s">
+      <c r="D8" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="69" t="s">
+      <c r="E8" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="70" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="59" t="n">
+      <c r="F8" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="50" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="66" t="s">
+      <c r="A9" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="58" t="s">
         <v>105</v>
       </c>
-      <c r="C9" s="68" t="s">
+      <c r="C9" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="D9" s="67" t="s">
+      <c r="D9" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="E9" s="69" t="s">
+      <c r="E9" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="F9" s="70" t="n">
+      <c r="F9" s="61" t="n">
         <v>0</v>
       </c>
-      <c r="G9" s="59" t="n">
+      <c r="G9" s="50" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="71"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="75"/>
+      <c r="A10" s="62"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="66"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="71"/>
-      <c r="B11" s="72"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="75"/>
+      <c r="A11" s="62"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="66"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="71"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="75"/>
+      <c r="A12" s="62"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="66"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="71"/>
-      <c r="B13" s="72"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="75"/>
+      <c r="A13" s="62"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="66"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="71"/>
-      <c r="B14" s="72"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="75"/>
+      <c r="A14" s="62"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="66"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="71"/>
-      <c r="B15" s="72"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="75"/>
+      <c r="A15" s="62"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="66"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="71"/>
-      <c r="B16" s="72"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="75"/>
+      <c r="A16" s="62"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="66"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="71"/>
-      <c r="B17" s="72"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="75"/>
+      <c r="A17" s="62"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="66"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="71"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="75"/>
+      <c r="A18" s="62"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="66"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="71"/>
-      <c r="B19" s="72"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="75"/>
+      <c r="A19" s="62"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="66"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="71"/>
-      <c r="B20" s="72"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="75"/>
+      <c r="A20" s="62"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="66"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="71"/>
-      <c r="B21" s="72"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="75"/>
+      <c r="A21" s="62"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="66"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="71"/>
-      <c r="B22" s="72"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="75"/>
+      <c r="A22" s="62"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="66"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="71"/>
-      <c r="B23" s="76"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="79"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="70"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="71"/>
-      <c r="B24" s="76"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="75"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="66"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="71"/>
-      <c r="B25" s="76"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="76"/>
-      <c r="E25" s="78"/>
-      <c r="F25" s="75"/>
+      <c r="A25" s="62"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="66"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F26" s="80"/>
+      <c r="F26" s="71"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F27" s="80"/>
+      <c r="F27" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3604,20 +3522,20 @@
   </sheetPr>
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B34" activeCellId="0" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="31.8137651821862"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="43.7044534412956"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="32.0283400809717"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="44.0242914979757"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="17.7813765182186"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="13" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.3157894736842"/>
     <col collapsed="false" hidden="false" max="1023" min="7" style="14" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="81" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="72" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3629,21 +3547,22 @@
       <c r="F1" s="16" t="s">
         <v>30</v>
       </c>
+      <c r="G1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="82" t="s">
+      <c r="C2" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="82" t="s">
+      <c r="D2" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="82" t="s">
+      <c r="E2" s="73" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="18" t="s">
@@ -3654,19 +3573,19 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="85" t="n">
+      <c r="C3" s="76" t="n">
         <v>9300655602477</v>
       </c>
-      <c r="D3" s="84" t="s">
+      <c r="D3" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="75" t="s">
         <v>39</v>
       </c>
       <c r="F3" s="23" t="n">
@@ -3677,19 +3596,19 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="85" t="n">
+      <c r="C4" s="76" t="n">
         <v>93301992</v>
       </c>
-      <c r="D4" s="84" t="s">
+      <c r="D4" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="84" t="s">
+      <c r="E4" s="75" t="s">
         <v>41</v>
       </c>
       <c r="F4" s="23" t="n">
@@ -3700,19 +3619,19 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="83" t="s">
+      <c r="A5" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="84" t="s">
+      <c r="B5" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="85" t="n">
+      <c r="C5" s="76" t="n">
         <v>9319733003273</v>
       </c>
-      <c r="D5" s="84" t="s">
+      <c r="D5" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="86" t="s">
+      <c r="E5" s="77" t="s">
         <v>39</v>
       </c>
       <c r="F5" s="23" t="n">
@@ -3723,19 +3642,19 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="84" t="s">
+      <c r="B6" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="85" t="n">
+      <c r="C6" s="76" t="n">
         <v>9310717300005</v>
       </c>
-      <c r="D6" s="84" t="s">
+      <c r="D6" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="86" t="s">
+      <c r="E6" s="77" t="s">
         <v>39</v>
       </c>
       <c r="F6" s="23" t="n">
@@ -3746,19 +3665,19 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="83" t="s">
+      <c r="A7" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="84" t="s">
+      <c r="B7" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="85" t="n">
+      <c r="C7" s="76" t="n">
         <v>9310717300029</v>
       </c>
-      <c r="D7" s="84" t="s">
+      <c r="D7" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="84" t="s">
+      <c r="E7" s="75" t="s">
         <v>39</v>
       </c>
       <c r="F7" s="23" t="n">
@@ -3769,19 +3688,19 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="83" t="s">
+      <c r="A8" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="84" t="s">
+      <c r="B8" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="85" t="n">
+      <c r="C8" s="76" t="n">
         <v>9416270112120</v>
       </c>
-      <c r="D8" s="84" t="s">
+      <c r="D8" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="84" t="s">
+      <c r="E8" s="75" t="s">
         <v>48</v>
       </c>
       <c r="F8" s="23" t="n">
@@ -3792,19 +3711,19 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="83" t="s">
+      <c r="A9" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="84" t="s">
+      <c r="B9" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="85" t="n">
+      <c r="C9" s="76" t="n">
         <v>9416270112113</v>
       </c>
-      <c r="D9" s="84" t="s">
+      <c r="D9" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="84" t="s">
+      <c r="E9" s="75" t="s">
         <v>48</v>
       </c>
       <c r="F9" s="23" t="n">
@@ -3815,19 +3734,19 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="83" t="s">
+      <c r="A10" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="84" t="s">
+      <c r="B10" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="85" t="n">
+      <c r="C10" s="76" t="n">
         <v>9316090019220</v>
       </c>
-      <c r="D10" s="84" t="s">
+      <c r="D10" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="84" t="s">
+      <c r="E10" s="75" t="s">
         <v>52</v>
       </c>
       <c r="F10" s="23" t="n">
@@ -3838,19 +3757,19 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="83" t="s">
+      <c r="A11" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="84" t="s">
+      <c r="B11" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="85" t="n">
+      <c r="C11" s="76" t="n">
         <v>9316090019350</v>
       </c>
-      <c r="D11" s="84" t="s">
+      <c r="D11" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="84" t="s">
+      <c r="E11" s="75" t="s">
         <v>54</v>
       </c>
       <c r="F11" s="23" t="n">
@@ -3861,19 +3780,19 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="83" t="s">
+      <c r="A12" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="84" t="s">
+      <c r="B12" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="85" t="n">
+      <c r="C12" s="76" t="n">
         <v>9316090016175</v>
       </c>
-      <c r="D12" s="84" t="s">
+      <c r="D12" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="84" t="s">
+      <c r="E12" s="75" t="s">
         <v>54</v>
       </c>
       <c r="F12" s="23" t="n">
@@ -3884,19 +3803,19 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="83" t="s">
+      <c r="A13" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="84" t="s">
+      <c r="B13" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="85" t="n">
+      <c r="C13" s="76" t="n">
         <v>9316090018759</v>
       </c>
-      <c r="D13" s="84" t="s">
+      <c r="D13" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="86" t="s">
+      <c r="E13" s="77" t="s">
         <v>54</v>
       </c>
       <c r="F13" s="23" t="n">
@@ -3907,19 +3826,19 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="83" t="s">
+      <c r="A14" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="84" t="s">
+      <c r="B14" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="85" t="n">
+      <c r="C14" s="76" t="n">
         <v>9316090019237</v>
       </c>
-      <c r="D14" s="84" t="s">
+      <c r="D14" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="86" t="s">
+      <c r="E14" s="77" t="s">
         <v>52</v>
       </c>
       <c r="F14" s="23" t="n">
@@ -3930,19 +3849,19 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="83" t="s">
+      <c r="A15" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="84" t="s">
+      <c r="B15" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="85" t="n">
+      <c r="C15" s="76" t="n">
         <v>9316090019237</v>
       </c>
-      <c r="D15" s="84" t="s">
+      <c r="D15" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="84" t="s">
+      <c r="E15" s="75" t="s">
         <v>52</v>
       </c>
       <c r="F15" s="23" t="n">
@@ -3953,19 +3872,19 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="83" t="s">
+      <c r="A16" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="84" t="s">
+      <c r="B16" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="85" t="n">
+      <c r="C16" s="76" t="n">
         <v>9316090019190</v>
       </c>
-      <c r="D16" s="84" t="s">
+      <c r="D16" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="84" t="s">
+      <c r="E16" s="75" t="s">
         <v>52</v>
       </c>
       <c r="F16" s="23" t="n">
@@ -3976,19 +3895,19 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="83" t="s">
+      <c r="A17" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="84" t="s">
+      <c r="B17" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="85" t="n">
+      <c r="C17" s="76" t="n">
         <v>9316090021100</v>
       </c>
-      <c r="D17" s="84" t="s">
+      <c r="D17" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="84" t="s">
+      <c r="E17" s="75" t="s">
         <v>62</v>
       </c>
       <c r="F17" s="23" t="n">
@@ -3999,19 +3918,19 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="83" t="s">
+      <c r="A18" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="84" t="s">
+      <c r="B18" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="85" t="n">
+      <c r="C18" s="76" t="n">
         <v>9316090019206</v>
       </c>
-      <c r="D18" s="84" t="s">
+      <c r="D18" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="84" t="s">
+      <c r="E18" s="75" t="s">
         <v>52</v>
       </c>
       <c r="F18" s="23" t="n">
@@ -4022,19 +3941,19 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="83" t="s">
+      <c r="A19" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="84" t="s">
+      <c r="B19" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="85" t="n">
+      <c r="C19" s="76" t="n">
         <v>9319733001903</v>
       </c>
-      <c r="D19" s="84" t="s">
+      <c r="D19" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="84" t="s">
+      <c r="E19" s="75" t="s">
         <v>41</v>
       </c>
       <c r="F19" s="23" t="n">
@@ -4045,19 +3964,19 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="83" t="s">
+      <c r="A20" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="84" t="s">
+      <c r="B20" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="85" t="n">
+      <c r="C20" s="76" t="n">
         <v>9300655003298</v>
       </c>
-      <c r="D20" s="84" t="s">
+      <c r="D20" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="84" t="s">
+      <c r="E20" s="75" t="s">
         <v>41</v>
       </c>
       <c r="F20" s="23" t="n">
@@ -4068,19 +3987,19 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="83" t="s">
+      <c r="A21" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="84" t="s">
+      <c r="B21" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="85" t="n">
+      <c r="C21" s="76" t="n">
         <v>9300655059240</v>
       </c>
-      <c r="D21" s="84" t="s">
+      <c r="D21" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="86" t="s">
+      <c r="E21" s="77" t="s">
         <v>41</v>
       </c>
       <c r="F21" s="23" t="n">
@@ -4091,19 +4010,19 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="83" t="s">
+      <c r="A22" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="84" t="s">
+      <c r="B22" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="85" t="n">
+      <c r="C22" s="76" t="n">
         <v>9300655122548</v>
       </c>
-      <c r="D22" s="84" t="s">
+      <c r="D22" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="84" t="s">
+      <c r="E22" s="75" t="s">
         <v>39</v>
       </c>
       <c r="F22" s="23" t="n">
@@ -4114,19 +4033,19 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="83" t="s">
+      <c r="A23" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="84" t="s">
+      <c r="B23" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="C23" s="85" t="n">
+      <c r="C23" s="76" t="n">
         <v>9300655056812</v>
       </c>
-      <c r="D23" s="84" t="s">
+      <c r="D23" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="84" t="s">
+      <c r="E23" s="75" t="s">
         <v>39</v>
       </c>
       <c r="F23" s="23" t="n">
@@ -4137,19 +4056,19 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="83" t="s">
+      <c r="A24" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="84" t="s">
+      <c r="B24" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="85" t="n">
+      <c r="C24" s="76" t="n">
         <v>9321547072611</v>
       </c>
-      <c r="D24" s="84" t="s">
+      <c r="D24" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="E24" s="84" t="s">
+      <c r="E24" s="75" t="s">
         <v>71</v>
       </c>
       <c r="F24" s="23" t="n">
@@ -4160,19 +4079,19 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="83" t="s">
+      <c r="A25" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="84" t="s">
+      <c r="B25" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="85" t="n">
+      <c r="C25" s="76" t="n">
         <v>9321547136023</v>
       </c>
-      <c r="D25" s="84" t="s">
+      <c r="D25" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="E25" s="84" t="s">
+      <c r="E25" s="75" t="s">
         <v>74</v>
       </c>
       <c r="F25" s="23" t="n">
@@ -4183,19 +4102,19 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="83" t="s">
+      <c r="A26" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="84" t="s">
+      <c r="B26" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="85" t="n">
+      <c r="C26" s="76" t="n">
         <v>9321547146213</v>
       </c>
-      <c r="D26" s="84" t="s">
+      <c r="D26" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="E26" s="84" t="s">
+      <c r="E26" s="75" t="s">
         <v>74</v>
       </c>
       <c r="F26" s="23" t="n">
@@ -4206,19 +4125,19 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="83" t="s">
+      <c r="A27" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="87" t="s">
+      <c r="B27" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="C27" s="85" t="n">
+      <c r="C27" s="76" t="n">
         <v>9319733002290</v>
       </c>
-      <c r="D27" s="86" t="s">
+      <c r="D27" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="E27" s="86" t="s">
+      <c r="E27" s="77" t="s">
         <v>74</v>
       </c>
       <c r="F27" s="23" t="n">
@@ -4229,19 +4148,19 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="83" t="s">
+      <c r="A28" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="87" t="s">
+      <c r="B28" s="78" t="s">
         <v>77</v>
       </c>
-      <c r="C28" s="85" t="n">
+      <c r="C28" s="76" t="n">
         <v>9417133903442</v>
       </c>
-      <c r="D28" s="86" t="s">
+      <c r="D28" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="E28" s="86" t="s">
+      <c r="E28" s="77" t="s">
         <v>74</v>
       </c>
       <c r="F28" s="23" t="n">

--- a/Projects/SANOFINZ/Data/Template.xlsx
+++ b/Projects/SANOFINZ/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -531,7 +531,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="107">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -864,7 +864,7 @@
     <numFmt numFmtId="166" formatCode="0.00"/>
     <numFmt numFmtId="167" formatCode="0"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -968,21 +968,6 @@
     <font>
       <b val="true"/>
       <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1134,7 +1119,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1168,13 +1153,6 @@
       <right/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -1263,7 +1241,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="77">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1392,23 +1370,39 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="8" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="18" fillId="9" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="9" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1416,34 +1410,10 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="9" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="9" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1452,7 +1422,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="23" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="21" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1460,95 +1430,95 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="26" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="24" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="7" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="7" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="28" fillId="8" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="26" fillId="8" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="8" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="27" fillId="8" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="13" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="12" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1675,19 +1645,19 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.6396761133603"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.4939271255061"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1945,18 +1915,18 @@
   </sheetPr>
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="44.0242914979757"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="44.3481781376518"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="18.4251012145749"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="13" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.3157894736842"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="14" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -2849,17 +2819,17 @@
   </sheetPr>
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="26" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="26" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="26" width="31.8137651821862"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="26" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="26" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="26" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="26" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="26" width="32.0283400809717"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="26" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="26" width="17.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="27" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -2889,168 +2859,172 @@
       <c r="E2" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="32"/>
-      <c r="G2" s="33"/>
+      <c r="F2" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="39"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="37"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="34"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="39"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="37"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="34"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="39"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="37"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="34"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="39"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="37"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="34"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="39"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="37"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="34"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="39"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="37"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="34"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="39"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="37"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="34"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="39"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="37"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="34"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="39"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="37"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="34"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="39"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="37"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="34"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="39"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="37"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="34"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="39"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="37"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="34"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="39"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="37"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="34"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="39"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="37"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="34"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="39"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="37"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="34"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="39"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="37"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="34"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="39"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="37"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="34"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="39"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="37"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="34"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="39"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="37"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="34"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="39"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="37"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3069,28 +3043,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="45" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="45" width="51.8461538461539"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="45" width="39.5263157894737"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="45" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="46" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="43" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="43" width="52.2753036437247"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="43" width="39.8502024291498"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="43" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="44" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="47"/>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="48" t="s">
+      <c r="A1" s="45"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="46" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3110,30 +3084,35 @@
       <c r="E2" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="32"/>
+      <c r="F2" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="47" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="47" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="47" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="47" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="47" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3156,349 +3135,349 @@
   </sheetPr>
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="50" width="29.1376518218623"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="51" width="32.9919028340081"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="50" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="51" width="26.995951417004"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="51" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="50" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="52" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="48" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="49" width="33.2064777327935"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="48" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="49" width="27.2064777327935"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="49" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="48" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="50" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="53"/>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="54" t="s">
+      <c r="A1" s="51"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="54"/>
+      <c r="G1" s="52"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="E2" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="56" t="s">
+      <c r="G2" s="54" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="58" t="s">
+      <c r="D3" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="60" t="s">
+      <c r="E3" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="F3" s="61" t="n">
+      <c r="F3" s="59" t="n">
         <v>0</v>
       </c>
-      <c r="G3" s="50" t="n">
+      <c r="G3" s="48" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="D4" s="58" t="s">
+      <c r="D4" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="E4" s="60" t="s">
+      <c r="E4" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="F4" s="61" t="n">
+      <c r="F4" s="59" t="n">
         <v>0</v>
       </c>
-      <c r="G4" s="50" t="n">
+      <c r="G4" s="48" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="E5" s="60" t="s">
+      <c r="E5" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="61" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="50" t="n">
+      <c r="F5" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="48" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="D6" s="58" t="s">
+      <c r="D6" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="E6" s="60" t="s">
+      <c r="E6" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="61" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="50" t="n">
+      <c r="F6" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="48" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="D7" s="58" t="s">
+      <c r="D7" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="60" t="s">
+      <c r="E7" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="61" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="50" t="n">
+      <c r="F7" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="48" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="D8" s="58" t="s">
+      <c r="D8" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="60" t="s">
+      <c r="E8" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="61" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="50" t="n">
+      <c r="F8" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="48" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="57" t="s">
         <v>106</v>
       </c>
-      <c r="D9" s="58" t="s">
+      <c r="D9" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="E9" s="60" t="s">
+      <c r="E9" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="F9" s="61" t="n">
+      <c r="F9" s="59" t="n">
         <v>0</v>
       </c>
-      <c r="G9" s="50" t="n">
+      <c r="G9" s="48" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="62"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="66"/>
+      <c r="A10" s="60"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="64"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="62"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="66"/>
+      <c r="A11" s="60"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="64"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="62"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="66"/>
+      <c r="A12" s="60"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="64"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="62"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="66"/>
+      <c r="A13" s="60"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="64"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="62"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="66"/>
+      <c r="A14" s="60"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="64"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="62"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="66"/>
+      <c r="A15" s="60"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="64"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="62"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="66"/>
+      <c r="A16" s="60"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="64"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="62"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="66"/>
+      <c r="A17" s="60"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="64"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="62"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="66"/>
+      <c r="A18" s="60"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="64"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="62"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="66"/>
+      <c r="A19" s="60"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="64"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="62"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="66"/>
+      <c r="A20" s="60"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="64"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="62"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="66"/>
+      <c r="A21" s="60"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="64"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="62"/>
-      <c r="B22" s="63"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="66"/>
+      <c r="A22" s="60"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="64"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="62"/>
-      <c r="B23" s="67"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="70"/>
+      <c r="A23" s="60"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="68"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="62"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="66"/>
+      <c r="A24" s="60"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="64"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="62"/>
-      <c r="B25" s="67"/>
-      <c r="C25" s="68"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="66"/>
+      <c r="A25" s="60"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="64"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F26" s="71"/>
+      <c r="F26" s="69"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F27" s="71"/>
+      <c r="F27" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3522,20 +3501,20 @@
   </sheetPr>
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B34" activeCellId="0" sqref="B34"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="32.0283400809717"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="44.0242914979757"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="32.2429149797571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="44.3481781376518"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="17.8906882591093"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="13" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.4251012145749"/>
     <col collapsed="false" hidden="false" max="1023" min="7" style="14" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="72" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="70" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3550,19 +3529,19 @@
       <c r="G1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="73" t="s">
+      <c r="D2" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="73" t="s">
+      <c r="E2" s="71" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="18" t="s">
@@ -3573,19 +3552,19 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="76" t="n">
+      <c r="C3" s="74" t="n">
         <v>9300655602477</v>
       </c>
-      <c r="D3" s="75" t="s">
+      <c r="D3" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="75" t="s">
+      <c r="E3" s="73" t="s">
         <v>39</v>
       </c>
       <c r="F3" s="23" t="n">
@@ -3596,19 +3575,19 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="76" t="n">
+      <c r="C4" s="74" t="n">
         <v>93301992</v>
       </c>
-      <c r="D4" s="75" t="s">
+      <c r="D4" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="75" t="s">
+      <c r="E4" s="73" t="s">
         <v>41</v>
       </c>
       <c r="F4" s="23" t="n">
@@ -3619,19 +3598,19 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="76" t="n">
+      <c r="C5" s="74" t="n">
         <v>9319733003273</v>
       </c>
-      <c r="D5" s="75" t="s">
+      <c r="D5" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="77" t="s">
+      <c r="E5" s="75" t="s">
         <v>39</v>
       </c>
       <c r="F5" s="23" t="n">
@@ -3642,19 +3621,19 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="76" t="n">
+      <c r="C6" s="74" t="n">
         <v>9310717300005</v>
       </c>
-      <c r="D6" s="75" t="s">
+      <c r="D6" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="77" t="s">
+      <c r="E6" s="75" t="s">
         <v>39</v>
       </c>
       <c r="F6" s="23" t="n">
@@ -3665,19 +3644,19 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="74" t="s">
+      <c r="A7" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="76" t="n">
+      <c r="C7" s="74" t="n">
         <v>9310717300029</v>
       </c>
-      <c r="D7" s="75" t="s">
+      <c r="D7" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="75" t="s">
+      <c r="E7" s="73" t="s">
         <v>39</v>
       </c>
       <c r="F7" s="23" t="n">
@@ -3688,19 +3667,19 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="74" t="s">
+      <c r="A8" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="75" t="s">
+      <c r="B8" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="76" t="n">
+      <c r="C8" s="74" t="n">
         <v>9416270112120</v>
       </c>
-      <c r="D8" s="75" t="s">
+      <c r="D8" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="75" t="s">
+      <c r="E8" s="73" t="s">
         <v>48</v>
       </c>
       <c r="F8" s="23" t="n">
@@ -3711,19 +3690,19 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="74" t="s">
+      <c r="A9" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="75" t="s">
+      <c r="B9" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="76" t="n">
+      <c r="C9" s="74" t="n">
         <v>9416270112113</v>
       </c>
-      <c r="D9" s="75" t="s">
+      <c r="D9" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="75" t="s">
+      <c r="E9" s="73" t="s">
         <v>48</v>
       </c>
       <c r="F9" s="23" t="n">
@@ -3734,19 +3713,19 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="74" t="s">
+      <c r="A10" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="76" t="n">
+      <c r="C10" s="74" t="n">
         <v>9316090019220</v>
       </c>
-      <c r="D10" s="75" t="s">
+      <c r="D10" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="75" t="s">
+      <c r="E10" s="73" t="s">
         <v>52</v>
       </c>
       <c r="F10" s="23" t="n">
@@ -3757,19 +3736,19 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="74" t="s">
+      <c r="A11" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="75" t="s">
+      <c r="B11" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="76" t="n">
+      <c r="C11" s="74" t="n">
         <v>9316090019350</v>
       </c>
-      <c r="D11" s="75" t="s">
+      <c r="D11" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="75" t="s">
+      <c r="E11" s="73" t="s">
         <v>54</v>
       </c>
       <c r="F11" s="23" t="n">
@@ -3780,19 +3759,19 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="74" t="s">
+      <c r="A12" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="75" t="s">
+      <c r="B12" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="76" t="n">
+      <c r="C12" s="74" t="n">
         <v>9316090016175</v>
       </c>
-      <c r="D12" s="75" t="s">
+      <c r="D12" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="75" t="s">
+      <c r="E12" s="73" t="s">
         <v>54</v>
       </c>
       <c r="F12" s="23" t="n">
@@ -3803,19 +3782,19 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="74" t="s">
+      <c r="A13" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="75" t="s">
+      <c r="B13" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="76" t="n">
+      <c r="C13" s="74" t="n">
         <v>9316090018759</v>
       </c>
-      <c r="D13" s="75" t="s">
+      <c r="D13" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="77" t="s">
+      <c r="E13" s="75" t="s">
         <v>54</v>
       </c>
       <c r="F13" s="23" t="n">
@@ -3826,19 +3805,19 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="74" t="s">
+      <c r="A14" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="75" t="s">
+      <c r="B14" s="73" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="76" t="n">
+      <c r="C14" s="74" t="n">
         <v>9316090019237</v>
       </c>
-      <c r="D14" s="75" t="s">
+      <c r="D14" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="77" t="s">
+      <c r="E14" s="75" t="s">
         <v>52</v>
       </c>
       <c r="F14" s="23" t="n">
@@ -3849,19 +3828,19 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="74" t="s">
+      <c r="A15" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="75" t="s">
+      <c r="B15" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="76" t="n">
+      <c r="C15" s="74" t="n">
         <v>9316090019237</v>
       </c>
-      <c r="D15" s="75" t="s">
+      <c r="D15" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="75" t="s">
+      <c r="E15" s="73" t="s">
         <v>52</v>
       </c>
       <c r="F15" s="23" t="n">
@@ -3872,19 +3851,19 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="74" t="s">
+      <c r="A16" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="75" t="s">
+      <c r="B16" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="76" t="n">
+      <c r="C16" s="74" t="n">
         <v>9316090019190</v>
       </c>
-      <c r="D16" s="75" t="s">
+      <c r="D16" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="75" t="s">
+      <c r="E16" s="73" t="s">
         <v>52</v>
       </c>
       <c r="F16" s="23" t="n">
@@ -3895,19 +3874,19 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="74" t="s">
+      <c r="A17" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="75" t="s">
+      <c r="B17" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="76" t="n">
+      <c r="C17" s="74" t="n">
         <v>9316090021100</v>
       </c>
-      <c r="D17" s="75" t="s">
+      <c r="D17" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="75" t="s">
+      <c r="E17" s="73" t="s">
         <v>62</v>
       </c>
       <c r="F17" s="23" t="n">
@@ -3918,19 +3897,19 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="74" t="s">
+      <c r="A18" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="75" t="s">
+      <c r="B18" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="76" t="n">
+      <c r="C18" s="74" t="n">
         <v>9316090019206</v>
       </c>
-      <c r="D18" s="75" t="s">
+      <c r="D18" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="75" t="s">
+      <c r="E18" s="73" t="s">
         <v>52</v>
       </c>
       <c r="F18" s="23" t="n">
@@ -3941,19 +3920,19 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="74" t="s">
+      <c r="A19" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="75" t="s">
+      <c r="B19" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="76" t="n">
+      <c r="C19" s="74" t="n">
         <v>9319733001903</v>
       </c>
-      <c r="D19" s="75" t="s">
+      <c r="D19" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="75" t="s">
+      <c r="E19" s="73" t="s">
         <v>41</v>
       </c>
       <c r="F19" s="23" t="n">
@@ -3964,19 +3943,19 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="74" t="s">
+      <c r="A20" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="75" t="s">
+      <c r="B20" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="76" t="n">
+      <c r="C20" s="74" t="n">
         <v>9300655003298</v>
       </c>
-      <c r="D20" s="75" t="s">
+      <c r="D20" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="75" t="s">
+      <c r="E20" s="73" t="s">
         <v>41</v>
       </c>
       <c r="F20" s="23" t="n">
@@ -3987,19 +3966,19 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="74" t="s">
+      <c r="A21" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="75" t="s">
+      <c r="B21" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="76" t="n">
+      <c r="C21" s="74" t="n">
         <v>9300655059240</v>
       </c>
-      <c r="D21" s="75" t="s">
+      <c r="D21" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="77" t="s">
+      <c r="E21" s="75" t="s">
         <v>41</v>
       </c>
       <c r="F21" s="23" t="n">
@@ -4010,19 +3989,19 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="74" t="s">
+      <c r="A22" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="75" t="s">
+      <c r="B22" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="76" t="n">
+      <c r="C22" s="74" t="n">
         <v>9300655122548</v>
       </c>
-      <c r="D22" s="75" t="s">
+      <c r="D22" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="75" t="s">
+      <c r="E22" s="73" t="s">
         <v>39</v>
       </c>
       <c r="F22" s="23" t="n">
@@ -4033,19 +4012,19 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="74" t="s">
+      <c r="A23" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="75" t="s">
+      <c r="B23" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="C23" s="76" t="n">
+      <c r="C23" s="74" t="n">
         <v>9300655056812</v>
       </c>
-      <c r="D23" s="75" t="s">
+      <c r="D23" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="75" t="s">
+      <c r="E23" s="73" t="s">
         <v>39</v>
       </c>
       <c r="F23" s="23" t="n">
@@ -4056,19 +4035,19 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="74" t="s">
+      <c r="A24" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="75" t="s">
+      <c r="B24" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="76" t="n">
+      <c r="C24" s="74" t="n">
         <v>9321547072611</v>
       </c>
-      <c r="D24" s="75" t="s">
+      <c r="D24" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="E24" s="75" t="s">
+      <c r="E24" s="73" t="s">
         <v>71</v>
       </c>
       <c r="F24" s="23" t="n">
@@ -4079,19 +4058,19 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="74" t="s">
+      <c r="A25" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="75" t="s">
+      <c r="B25" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="76" t="n">
+      <c r="C25" s="74" t="n">
         <v>9321547136023</v>
       </c>
-      <c r="D25" s="75" t="s">
+      <c r="D25" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="E25" s="75" t="s">
+      <c r="E25" s="73" t="s">
         <v>74</v>
       </c>
       <c r="F25" s="23" t="n">
@@ -4102,19 +4081,19 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="74" t="s">
+      <c r="A26" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="75" t="s">
+      <c r="B26" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="76" t="n">
+      <c r="C26" s="74" t="n">
         <v>9321547146213</v>
       </c>
-      <c r="D26" s="75" t="s">
+      <c r="D26" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="E26" s="75" t="s">
+      <c r="E26" s="73" t="s">
         <v>74</v>
       </c>
       <c r="F26" s="23" t="n">
@@ -4125,19 +4104,19 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="74" t="s">
+      <c r="A27" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="78" t="s">
+      <c r="B27" s="76" t="s">
         <v>76</v>
       </c>
-      <c r="C27" s="76" t="n">
+      <c r="C27" s="74" t="n">
         <v>9319733002290</v>
       </c>
-      <c r="D27" s="77" t="s">
+      <c r="D27" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="E27" s="77" t="s">
+      <c r="E27" s="75" t="s">
         <v>74</v>
       </c>
       <c r="F27" s="23" t="n">
@@ -4148,19 +4127,19 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="74" t="s">
+      <c r="A28" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="78" t="s">
+      <c r="B28" s="76" t="s">
         <v>77</v>
       </c>
-      <c r="C28" s="76" t="n">
+      <c r="C28" s="74" t="n">
         <v>9417133903442</v>
       </c>
-      <c r="D28" s="77" t="s">
+      <c r="D28" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="E28" s="77" t="s">
+      <c r="E28" s="75" t="s">
         <v>74</v>
       </c>
       <c r="F28" s="23" t="n">
